--- a/Data/BD Phantom Chief final.xlsx
+++ b/Data/BD Phantom Chief final.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivar\Downloads\MasterCamp\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D5E49-E126-4627-BB90-21E497ED290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="231">
   <si>
     <t>Nom</t>
   </si>
@@ -704,13 +710,16 @@
   </si>
   <si>
     <t>https://assets.afcdn.com/recipe/20171019/73301_w1024h1024c1cx1800cy1200.webp</t>
+  </si>
+  <si>
+    <t>presenceViande</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,16 +790,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -832,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,9 +881,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,6 +933,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1073,14 +1126,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1088,2435 +1143,2522 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>194</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L2">
-        <v>4.5481262998</v>
-      </c>
       <c r="M2">
-        <v>50.09975909339001</v>
+        <v>4.5481262997999998</v>
       </c>
       <c r="N2">
-        <v>1.3376227278</v>
+        <v>50.099759093390013</v>
       </c>
       <c r="O2">
-        <v>2.55175010847</v>
+        <v>1.3376227277999999</v>
       </c>
       <c r="P2">
-        <v>76.725476973</v>
+        <v>2.5517501084699998</v>
       </c>
       <c r="Q2">
-        <v>3.92453096039</v>
+        <v>76.725476972999999</v>
       </c>
       <c r="R2">
-        <v>0.581093463278</v>
+        <v>3.9245309603899998</v>
       </c>
       <c r="S2">
-        <v>2.52898624802</v>
+        <v>0.58109346327800004</v>
       </c>
       <c r="T2">
+        <v>2.5289862480199998</v>
+      </c>
+      <c r="U2">
         <v>4.168972458799999</v>
       </c>
-      <c r="U2">
-        <v>204.631715338</v>
-      </c>
       <c r="V2">
-        <v>2985.81446187</v>
+        <v>204.63171533799999</v>
       </c>
       <c r="W2">
-        <v>543.9721511800001</v>
+        <v>2985.8144618699998</v>
       </c>
       <c r="X2">
+        <v>543.97215118000008</v>
+      </c>
+      <c r="Y2">
         <v>20.3502136434</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>150.081537376</v>
       </c>
-      <c r="Z2">
-        <v>34.46203339500001</v>
-      </c>
       <c r="AA2">
-        <v>0.826310873126033</v>
+        <v>34.462033395000013</v>
+      </c>
+      <c r="AB2">
+        <v>0.82631087312603302</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>168</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>195</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L3">
-        <v>0.7323256473999999</v>
-      </c>
       <c r="M3">
-        <v>3.664325398</v>
+        <v>0.73232564739999995</v>
       </c>
       <c r="N3">
-        <v>0.4139027536</v>
+        <v>3.6643253979999999</v>
       </c>
       <c r="O3">
-        <v>96.4467579558</v>
+        <v>0.41390275360000001</v>
       </c>
       <c r="P3">
+        <v>96.446757955799995</v>
+      </c>
+      <c r="Q3">
         <v>15.34342451</v>
       </c>
-      <c r="Q3">
-        <v>0.4383232115</v>
-      </c>
       <c r="R3">
-        <v>0.06975270917</v>
+        <v>0.43832321149999998</v>
       </c>
       <c r="S3">
-        <v>0.29807192108</v>
+        <v>6.9752709169999996E-2</v>
       </c>
       <c r="T3">
-        <v>0.9520469459000001</v>
+        <v>0.29807192108000002</v>
       </c>
       <c r="U3">
+        <v>0.95204694590000005</v>
+      </c>
+      <c r="V3">
         <v>28.268904864</v>
       </c>
-      <c r="V3">
-        <v>272.06881595</v>
-      </c>
       <c r="W3">
-        <v>320.59745327</v>
+        <v>272.06881594999999</v>
       </c>
       <c r="X3">
-        <v>7.401372129999999</v>
+        <v>320.59745327000002</v>
       </c>
       <c r="Y3">
-        <v>55.86156216000001</v>
+        <v>7.4013721299999986</v>
       </c>
       <c r="Z3">
-        <v>11.34739015</v>
+        <v>55.861562160000013</v>
       </c>
       <c r="AA3">
-        <v>0.6775575053640748</v>
+        <v>11.347390150000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.67755750536407477</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>141</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>169</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>195</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L4">
-        <v>2.058834753</v>
-      </c>
       <c r="M4">
-        <v>22.28267655</v>
+        <v>2.0588347530000002</v>
       </c>
       <c r="N4">
-        <v>1.077671685</v>
+        <v>22.282676550000001</v>
       </c>
       <c r="O4">
-        <v>1.225114503</v>
+        <v>1.0776716850000001</v>
       </c>
       <c r="P4">
+        <v>1.2251145029999999</v>
+      </c>
+      <c r="Q4">
         <v>45.04324373</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.062348729</v>
       </c>
-      <c r="R4">
-        <v>0.1377550449</v>
-      </c>
       <c r="S4">
-        <v>0.5676664300000001</v>
+        <v>0.13775504490000001</v>
       </c>
       <c r="T4">
-        <v>2.751676763</v>
+        <v>0.56766643000000006</v>
       </c>
       <c r="U4">
+        <v>2.7516767629999999</v>
+      </c>
+      <c r="V4">
         <v>93.47598880000001</v>
       </c>
-      <c r="V4">
-        <v>471.619585</v>
-      </c>
       <c r="W4">
-        <v>904.8753332000001</v>
+        <v>471.61958499999997</v>
       </c>
       <c r="X4">
+        <v>904.87533320000011</v>
+      </c>
+      <c r="Y4">
         <v>15.73091061</v>
       </c>
-      <c r="Y4">
-        <v>87.1174389</v>
-      </c>
       <c r="Z4">
-        <v>26.3791837</v>
+        <v>87.117438899999996</v>
       </c>
       <c r="AA4">
-        <v>0.783420677417267</v>
+        <v>26.379183699999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.78342067741726695</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>142</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>170</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>195</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1005862937</v>
       </c>
-      <c r="M5">
-        <v>0.468522906</v>
-      </c>
       <c r="N5">
-        <v>0.04801553714</v>
+        <v>0.46852290600000002</v>
       </c>
       <c r="O5">
-        <v>0.05501981069</v>
+        <v>4.8015537140000002E-2</v>
       </c>
       <c r="P5">
-        <v>1.887544193</v>
+        <v>5.5019810689999997E-2</v>
       </c>
       <c r="Q5">
-        <v>0.07569015585</v>
+        <v>1.8875441930000001</v>
       </c>
       <c r="R5">
-        <v>0.010379039024</v>
+        <v>7.5690155849999996E-2</v>
       </c>
       <c r="S5">
-        <v>0.04735243705</v>
+        <v>1.0379039024E-2</v>
       </c>
       <c r="T5">
-        <v>0.0880605387</v>
+        <v>4.7352437050000001E-2</v>
       </c>
       <c r="U5">
-        <v>4.297682892</v>
+        <v>8.8060538699999996E-2</v>
       </c>
       <c r="V5">
-        <v>36.75711921</v>
+        <v>4.2976828920000001</v>
       </c>
       <c r="W5">
-        <v>17.48597481</v>
+        <v>36.757119209999999</v>
       </c>
       <c r="X5">
-        <v>2.726278107</v>
+        <v>17.485974809999998</v>
       </c>
       <c r="Y5">
-        <v>4.159848379</v>
+        <v>2.7262781070000002</v>
       </c>
       <c r="Z5">
-        <v>1.299257491</v>
+        <v>4.1598483789999996</v>
       </c>
       <c r="AA5">
+        <v>1.2992574910000001</v>
+      </c>
+      <c r="AB5">
         <v>0.1326292883722974</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>115</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>143</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>171</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>195</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L6">
-        <v>0.198837224</v>
-      </c>
       <c r="M6">
-        <v>1.219194376</v>
+        <v>0.19883722400000001</v>
       </c>
       <c r="N6">
+        <v>1.2191943759999999</v>
+      </c>
+      <c r="O6">
         <v>0.108278939</v>
       </c>
-      <c r="O6">
-        <v>0.2604619827</v>
-      </c>
       <c r="P6">
-        <v>4.03976129</v>
+        <v>0.26046198269999998</v>
       </c>
       <c r="Q6">
-        <v>0.1648803212</v>
+        <v>4.0397612900000004</v>
       </c>
       <c r="R6">
-        <v>0.02321204695</v>
+        <v>0.16488032120000001</v>
       </c>
       <c r="S6">
-        <v>0.0996020965</v>
+        <v>2.3212046949999999E-2</v>
       </c>
       <c r="T6">
-        <v>0.300818997</v>
+        <v>9.9602096500000001E-2</v>
       </c>
       <c r="U6">
-        <v>8.329755070000001</v>
+        <v>0.30081899699999998</v>
       </c>
       <c r="V6">
+        <v>8.3297550700000009</v>
+      </c>
+      <c r="W6">
         <v>83.17799952</v>
       </c>
-      <c r="W6">
-        <v>44.99929650000001</v>
-      </c>
       <c r="X6">
-        <v>1.606223509</v>
+        <v>44.999296500000007</v>
       </c>
       <c r="Y6">
+        <v>1.6062235090000001</v>
+      </c>
+      <c r="Z6">
         <v>12.5641768</v>
       </c>
-      <c r="Z6">
-        <v>4.615357039999999</v>
-      </c>
       <c r="AA6">
+        <v>4.6153570399999992</v>
+      </c>
+      <c r="AB6">
         <v>0.2085601962713157</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>144</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>172</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>194</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L7">
-        <v>0.206025843</v>
-      </c>
       <c r="M7">
+        <v>0.20602584299999999</v>
+      </c>
+      <c r="N7">
         <v>1.5329203</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.180430597</v>
       </c>
-      <c r="O7">
-        <v>0.681915897</v>
-      </c>
       <c r="P7">
+        <v>0.68191589699999999</v>
+      </c>
+      <c r="Q7">
         <v>3.862459219999999</v>
       </c>
-      <c r="Q7">
-        <v>0.1338494795</v>
-      </c>
       <c r="R7">
-        <v>0.016008041</v>
+        <v>0.13384947950000001</v>
       </c>
       <c r="S7">
-        <v>0.06273403900000001</v>
+        <v>1.6008041000000001E-2</v>
       </c>
       <c r="T7">
+        <v>6.2734039000000005E-2</v>
+      </c>
+      <c r="U7">
         <v>0.364996033</v>
       </c>
-      <c r="U7">
-        <v>7.522126449999999</v>
-      </c>
       <c r="V7">
-        <v>80.45166469999999</v>
+        <v>7.5221264499999991</v>
       </c>
       <c r="W7">
-        <v>50.6758991</v>
+        <v>80.451664699999995</v>
       </c>
       <c r="X7">
+        <v>50.675899100000002</v>
+      </c>
+      <c r="Y7">
         <v>2.14280114</v>
       </c>
-      <c r="Y7">
-        <v>23.9506875</v>
-      </c>
       <c r="Z7">
-        <v>3.95293273</v>
+        <v>23.950687500000001</v>
       </c>
       <c r="AA7">
-        <v>0.2526887553521806</v>
+        <v>3.9529327300000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.25268875535218061</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>145</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>173</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>195</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L8">
-        <v>2.8215328201</v>
-      </c>
       <c r="M8">
-        <v>31.63130792400001</v>
+        <v>2.8215328200999998</v>
       </c>
       <c r="N8">
-        <v>1.0487713438</v>
+        <v>31.631307924000009</v>
       </c>
       <c r="O8">
-        <v>3.7783282049</v>
+        <v>1.0487713437999999</v>
       </c>
       <c r="P8">
-        <v>45.03776097999999</v>
+        <v>3.7783282049000002</v>
       </c>
       <c r="Q8">
+        <v>45.037760979999987</v>
+      </c>
+      <c r="R8">
         <v>2.4837555055</v>
       </c>
-      <c r="R8">
-        <v>0.36913766882</v>
-      </c>
       <c r="S8">
+        <v>0.36913766881999999</v>
+      </c>
+      <c r="T8">
         <v>1.61199434458</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.9372930759</v>
       </c>
-      <c r="U8">
-        <v>86.49096932800001</v>
-      </c>
       <c r="V8">
+        <v>86.490969328000006</v>
+      </c>
+      <c r="W8">
         <v>1735.95752677</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>288.4615182</v>
       </c>
-      <c r="X8">
-        <v>13.00791191</v>
-      </c>
       <c r="Y8">
+        <v>13.007911910000001</v>
+      </c>
+      <c r="Z8">
         <v>139.01734911</v>
       </c>
-      <c r="Z8">
-        <v>21.05293990000001</v>
-      </c>
       <c r="AA8">
-        <v>0.7967173779264404</v>
+        <v>21.052939900000009</v>
+      </c>
+      <c r="AB8">
+        <v>0.79671737792644037</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>118</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>146</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>174</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>194</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L9">
-        <v>0.2495348904</v>
-      </c>
       <c r="M9">
-        <v>1.32407095859</v>
+        <v>0.24953489039999999</v>
       </c>
       <c r="N9">
-        <v>0.1369335359</v>
+        <v>1.3240709585899999</v>
       </c>
       <c r="O9">
-        <v>0.2976422028</v>
+        <v>0.13693353589999999</v>
       </c>
       <c r="P9">
-        <v>4.802577582</v>
+        <v>0.29764220279999998</v>
       </c>
       <c r="Q9">
-        <v>0.14970296992</v>
+        <v>4.8025775819999996</v>
       </c>
       <c r="R9">
-        <v>0.02086188696</v>
+        <v>0.14970296992000001</v>
       </c>
       <c r="S9">
-        <v>0.08731509848000001</v>
+        <v>2.0861886959999999E-2</v>
       </c>
       <c r="T9">
-        <v>0.4074606792000001</v>
+        <v>8.7315098480000006E-2</v>
       </c>
       <c r="U9">
+        <v>0.40746067920000012</v>
+      </c>
+      <c r="V9">
         <v>13.78340399</v>
       </c>
-      <c r="V9">
-        <v>128.42745912</v>
-      </c>
       <c r="W9">
-        <v>56.52705877</v>
+        <v>128.42745912000001</v>
       </c>
       <c r="X9">
-        <v>5.6127913997</v>
+        <v>56.527058769999996</v>
       </c>
       <c r="Y9">
-        <v>15.12155032</v>
+        <v>5.6127913996999999</v>
       </c>
       <c r="Z9">
-        <v>5.810826490999998</v>
+        <v>15.121550320000001</v>
       </c>
       <c r="AA9">
-        <v>0.3188882369594339</v>
+        <v>5.8108264909999976</v>
+      </c>
+      <c r="AB9">
+        <v>0.31888823695943391</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>147</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>175</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>195</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.362291945</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.06358314</v>
       </c>
-      <c r="N10">
-        <v>0.180119499</v>
-      </c>
       <c r="O10">
-        <v>0.4275258457</v>
+        <v>0.18011949899999999</v>
       </c>
       <c r="P10">
-        <v>6.55749868</v>
+        <v>0.42752584570000002</v>
       </c>
       <c r="Q10">
-        <v>0.290037422</v>
+        <v>6.5574986800000001</v>
       </c>
       <c r="R10">
-        <v>0.04186969444999999</v>
+        <v>0.29003742199999999</v>
       </c>
       <c r="S10">
+        <v>4.1869694449999988E-2</v>
+      </c>
+      <c r="T10">
         <v>0.1735232451</v>
       </c>
-      <c r="T10">
-        <v>0.7131362820000001</v>
-      </c>
       <c r="U10">
-        <v>16.99347055</v>
+        <v>0.71313628200000012</v>
       </c>
       <c r="V10">
-        <v>186.61296852</v>
+        <v>16.993470550000001</v>
       </c>
       <c r="W10">
-        <v>68.3538982</v>
+        <v>186.61296852000001</v>
       </c>
       <c r="X10">
-        <v>4.669515705</v>
+        <v>68.353898200000003</v>
       </c>
       <c r="Y10">
-        <v>21.9985138</v>
+        <v>4.6695157050000002</v>
       </c>
       <c r="Z10">
-        <v>8.56644257</v>
+        <v>21.998513800000001</v>
       </c>
       <c r="AA10">
-        <v>0.363661511126137</v>
+        <v>8.5664425699999995</v>
+      </c>
+      <c r="AB10">
+        <v>0.36366151112613698</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>120</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>148</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>176</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>195</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="L11">
-        <v>2.531665885</v>
-      </c>
       <c r="M11">
-        <v>29.67879097</v>
+        <v>2.5316658849999998</v>
       </c>
       <c r="N11">
-        <v>0.6422177148</v>
+        <v>29.678790970000001</v>
       </c>
       <c r="O11">
+        <v>0.64221771480000001</v>
+      </c>
+      <c r="P11">
         <v>0.9288851749</v>
       </c>
-      <c r="P11">
-        <v>40.99813246</v>
-      </c>
       <c r="Q11">
-        <v>2.294987965</v>
+        <v>40.998132460000001</v>
       </c>
       <c r="R11">
-        <v>0.33828106805</v>
+        <v>2.2949879649999998</v>
       </c>
       <c r="S11">
+        <v>0.33828106805000002</v>
+      </c>
+      <c r="T11">
         <v>1.4833463533</v>
       </c>
-      <c r="T11">
-        <v>1.928262839</v>
-      </c>
       <c r="U11">
-        <v>80.93965063</v>
+        <v>1.9282628390000001</v>
       </c>
       <c r="V11">
-        <v>1617.48410112</v>
+        <v>80.939650630000003</v>
       </c>
       <c r="W11">
-        <v>278.0353378</v>
+        <v>1617.4841011200001</v>
       </c>
       <c r="X11">
-        <v>14.438110653</v>
+        <v>278.03533779999998</v>
       </c>
       <c r="Y11">
-        <v>61.1077769</v>
+        <v>14.438110653000001</v>
       </c>
       <c r="Z11">
-        <v>21.21448654</v>
+        <v>61.107776899999998</v>
       </c>
       <c r="AA11">
-        <v>0.7967173779264404</v>
+        <v>21.214486539999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.79671737792644037</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>149</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>177</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>196</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L12">
-        <v>2.8892951065</v>
-      </c>
       <c r="M12">
-        <v>33.15207541159</v>
+        <v>2.8892951065000001</v>
       </c>
       <c r="N12">
-        <v>0.9814826533000001</v>
+        <v>33.152075411589998</v>
       </c>
       <c r="O12">
-        <v>3.9193231584</v>
+        <v>0.98148265330000006</v>
       </c>
       <c r="P12">
-        <v>45.355149537</v>
+        <v>3.9193231584000001</v>
       </c>
       <c r="Q12">
-        <v>2.52988055742</v>
+        <v>45.355149537000003</v>
       </c>
       <c r="R12">
+        <v>2.5298805574199998</v>
+      </c>
+      <c r="S12">
         <v>0.36839922704</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.64298810846</v>
       </c>
-      <c r="T12">
-        <v>2.1182504255</v>
-      </c>
       <c r="U12">
-        <v>92.16318150800001</v>
+        <v>2.1182504254999999</v>
       </c>
       <c r="V12">
-        <v>1821.6542905</v>
+        <v>92.163181508000008</v>
       </c>
       <c r="W12">
-        <v>270.77967387</v>
+        <v>1821.6542904999999</v>
       </c>
       <c r="X12">
+        <v>270.77967387000001</v>
+      </c>
+      <c r="Y12">
         <v>12.5721283679</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>131.52522807</v>
       </c>
-      <c r="Z12">
-        <v>18.756084723</v>
-      </c>
       <c r="AA12">
-        <v>0.7967173779264404</v>
+        <v>18.756084723000001</v>
+      </c>
+      <c r="AB12">
+        <v>0.79671737792644037</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>122</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>150</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>178</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>195</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L13">
-        <v>0.6239515389</v>
-      </c>
       <c r="M13">
-        <v>4.641843982999999</v>
+        <v>0.62395153889999999</v>
       </c>
       <c r="N13">
-        <v>0.22631516004</v>
+        <v>4.6418439829999993</v>
       </c>
       <c r="O13">
-        <v>0.18442169059</v>
+        <v>0.22631516003999999</v>
       </c>
       <c r="P13">
+        <v>0.18442169058999999</v>
+      </c>
+      <c r="Q13">
         <v>12.116465303</v>
       </c>
-      <c r="Q13">
-        <v>0.27818131235</v>
-      </c>
       <c r="R13">
-        <v>0.039694525624</v>
+        <v>0.27818131234999999</v>
       </c>
       <c r="S13">
-        <v>0.16653727195</v>
+        <v>3.9694525623999999E-2</v>
       </c>
       <c r="T13">
-        <v>0.8257520228999999</v>
+        <v>0.16653727195000001</v>
       </c>
       <c r="U13">
-        <v>13.654742176</v>
+        <v>0.82575202289999994</v>
       </c>
       <c r="V13">
+        <v>13.654742175999999</v>
+      </c>
+      <c r="W13">
         <v>137.44804886</v>
       </c>
-      <c r="W13">
-        <v>57.79697454</v>
-      </c>
       <c r="X13">
-        <v>33.724861963</v>
+        <v>57.796974540000001</v>
       </c>
       <c r="Y13">
+        <v>33.724861963000002</v>
+      </c>
+      <c r="Z13">
         <v>19.985407269</v>
       </c>
-      <c r="Z13">
-        <v>6.694606231000001</v>
-      </c>
       <c r="AA13">
-        <v>0.6165955834964116</v>
+        <v>6.6946062310000007</v>
+      </c>
+      <c r="AB13">
+        <v>0.61659558349641164</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>123</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>151</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>179</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>195</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>201</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L14">
-        <v>0.5690855804</v>
-      </c>
       <c r="M14">
+        <v>0.56908558040000001</v>
+      </c>
+      <c r="N14">
         <v>1.99310833459</v>
       </c>
-      <c r="N14">
-        <v>0.1830907399</v>
-      </c>
       <c r="O14">
+        <v>0.18309073989999999</v>
+      </c>
+      <c r="P14">
         <v>0.1246510024</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>13.956469574</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.20810079532</v>
       </c>
-      <c r="R14">
-        <v>0.02866435427</v>
-      </c>
       <c r="S14">
+        <v>2.8664354270000001E-2</v>
+      </c>
+      <c r="T14">
         <v>0.10759634654</v>
       </c>
-      <c r="T14">
-        <v>0.9351131497000001</v>
-      </c>
       <c r="U14">
+        <v>0.93511314970000015</v>
+      </c>
+      <c r="V14">
         <v>14.75819832</v>
       </c>
-      <c r="V14">
-        <v>60.05841574</v>
-      </c>
       <c r="W14">
-        <v>491.82102832</v>
+        <v>60.058415740000001</v>
       </c>
       <c r="X14">
-        <v>12.7597746347</v>
+        <v>491.82102831999998</v>
       </c>
       <c r="Y14">
-        <v>19.92599798</v>
+        <v>12.759774634699999</v>
       </c>
       <c r="Z14">
-        <v>7.766451639</v>
+        <v>19.925997980000002</v>
       </c>
       <c r="AA14">
-        <v>0.6053732155871185</v>
+        <v>7.7664516389999996</v>
+      </c>
+      <c r="AB14">
+        <v>0.60537321558711854</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>124</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>180</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>195</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>200</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L15">
-        <v>0.1207094097</v>
-      </c>
       <c r="M15">
+        <v>0.12070940970000001</v>
+      </c>
+      <c r="N15">
         <v>0.7452439930000001</v>
       </c>
-      <c r="N15">
-        <v>0.06975289604</v>
-      </c>
       <c r="O15">
-        <v>0.05515803769</v>
+        <v>6.9752896039999998E-2</v>
       </c>
       <c r="P15">
-        <v>2.470767493</v>
+        <v>5.5158037690000002E-2</v>
       </c>
       <c r="Q15">
+        <v>2.4707674929999999</v>
+      </c>
+      <c r="R15">
         <v>0.10637618755</v>
       </c>
-      <c r="R15">
-        <v>0.014869160764</v>
-      </c>
       <c r="S15">
-        <v>0.06633624815</v>
+        <v>1.4869160764E-2</v>
       </c>
       <c r="T15">
-        <v>0.1454525943</v>
+        <v>6.6336248149999999E-2</v>
       </c>
       <c r="U15">
-        <v>6.033958952</v>
+        <v>0.14545259429999999</v>
       </c>
       <c r="V15">
-        <v>51.59997661</v>
+        <v>6.0339589519999999</v>
       </c>
       <c r="W15">
-        <v>19.79163061</v>
+        <v>51.599976609999999</v>
       </c>
       <c r="X15">
-        <v>1.2206436573</v>
+        <v>19.791630609999999</v>
       </c>
       <c r="Y15">
-        <v>7.052912619000001</v>
+        <v>1.2206436572999999</v>
       </c>
       <c r="Z15">
+        <v>7.0529126190000007</v>
+      </c>
+      <c r="AA15">
         <v>1.505820129</v>
       </c>
-      <c r="AA15">
-        <v>0.1517739491194557</v>
+      <c r="AB15">
+        <v>0.15177394911945569</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>153</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>181</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>194</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>201</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.2310808258</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.332065254</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.2079587947</v>
       </c>
-      <c r="O16">
-        <v>0.8733668786</v>
-      </c>
       <c r="P16">
-        <v>4.884125750000001</v>
+        <v>0.87336687859999995</v>
       </c>
       <c r="Q16">
+        <v>4.8841257500000008</v>
+      </c>
+      <c r="R16">
         <v>0.1233725032</v>
       </c>
-      <c r="R16">
-        <v>0.01634763192</v>
-      </c>
       <c r="S16">
-        <v>0.06822121079999999</v>
+        <v>1.6347631920000001E-2</v>
       </c>
       <c r="T16">
-        <v>0.2904499544</v>
+        <v>6.8221210799999987E-2</v>
       </c>
       <c r="U16">
-        <v>8.224670335999999</v>
+        <v>0.29044995439999999</v>
       </c>
       <c r="V16">
-        <v>66.52029075</v>
+        <v>8.2246703359999991</v>
       </c>
       <c r="W16">
-        <v>55.00755207</v>
+        <v>66.520290750000001</v>
       </c>
       <c r="X16">
-        <v>3.862915184</v>
+        <v>55.007552070000003</v>
       </c>
       <c r="Y16">
-        <v>30.62830571</v>
+        <v>3.8629151839999998</v>
       </c>
       <c r="Z16">
-        <v>3.59691701</v>
+        <v>30.628305709999999</v>
       </c>
       <c r="AA16">
-        <v>0.2864636665591181</v>
+        <v>3.5969170099999999</v>
+      </c>
+      <c r="AB16">
+        <v>0.28646366655911809</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>154</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>182</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>196</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>197</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L17">
-        <v>1.14414505</v>
-      </c>
       <c r="M17">
-        <v>5.908591034000001</v>
+        <v>1.1441450500000001</v>
       </c>
       <c r="N17">
-        <v>0.6430042348</v>
+        <v>5.9085910340000014</v>
       </c>
       <c r="O17">
-        <v>2.9452181124</v>
+        <v>0.64300423480000002</v>
       </c>
       <c r="P17">
-        <v>22.399248122</v>
+        <v>2.9452181124000001</v>
       </c>
       <c r="Q17">
-        <v>0.6188271645400001</v>
+        <v>22.399248121999999</v>
       </c>
       <c r="R17">
-        <v>0.08672811105000001</v>
+        <v>0.61882716454000009</v>
       </c>
       <c r="S17">
+        <v>8.6728111050000015E-2</v>
+      </c>
+      <c r="T17">
         <v>0.36822359956</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.4370834501</v>
       </c>
-      <c r="U17">
-        <v>29.27882288900001</v>
-      </c>
       <c r="V17">
-        <v>292.0658603999999</v>
+        <v>29.278822889000011</v>
       </c>
       <c r="W17">
-        <v>595.27670999</v>
+        <v>292.06586039999991</v>
       </c>
       <c r="X17">
+        <v>595.27670998999997</v>
+      </c>
+      <c r="Y17">
         <v>16.069814981</v>
       </c>
-      <c r="Y17">
-        <v>99.31747815999999</v>
-      </c>
       <c r="Z17">
+        <v>99.317478159999993</v>
+      </c>
+      <c r="AA17">
         <v>14.409754244</v>
       </c>
-      <c r="AA17">
-        <v>0.7335620219651561</v>
+      <c r="AB17">
+        <v>0.73356202196515607</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>183</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>195</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L18">
-        <v>0.288767442</v>
-      </c>
       <c r="M18">
+        <v>0.28876744199999999</v>
+      </c>
+      <c r="N18">
         <v>1.39135027</v>
       </c>
-      <c r="N18">
-        <v>0.739649495</v>
-      </c>
       <c r="O18">
-        <v>0.6098725859999998</v>
+        <v>0.73964949499999999</v>
       </c>
       <c r="P18">
-        <v>3.73205773</v>
+        <v>0.60987258599999983</v>
       </c>
       <c r="Q18">
-        <v>0.1492133425</v>
+        <v>3.7320577300000002</v>
       </c>
       <c r="R18">
-        <v>0.01718002522</v>
+        <v>0.14921334250000001</v>
       </c>
       <c r="S18">
-        <v>0.0680793108</v>
+        <v>1.7180025219999999E-2</v>
       </c>
       <c r="T18">
-        <v>0.304192361</v>
+        <v>6.8079310800000001E-2</v>
       </c>
       <c r="U18">
-        <v>6.10144298</v>
+        <v>0.30419236100000002</v>
       </c>
       <c r="V18">
-        <v>50.3944024</v>
+        <v>6.1014429799999998</v>
       </c>
       <c r="W18">
-        <v>214.9737239</v>
+        <v>50.394402399999997</v>
       </c>
       <c r="X18">
-        <v>3.22270453</v>
+        <v>214.97372390000001</v>
       </c>
       <c r="Y18">
-        <v>25.3664458</v>
+        <v>3.2227045300000001</v>
       </c>
       <c r="Z18">
-        <v>5.71366518</v>
+        <v>25.366445800000001</v>
       </c>
       <c r="AA18">
-        <v>0.3491031215559937</v>
+        <v>5.7136651799999996</v>
+      </c>
+      <c r="AB18">
+        <v>0.34910312155599371</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>156</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>184</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>195</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>197</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L19">
-        <v>0.752621446</v>
-      </c>
       <c r="M19">
-        <v>3.660758866</v>
+        <v>0.75262144600000003</v>
       </c>
       <c r="N19">
+        <v>3.6607588660000001</v>
+      </c>
+      <c r="O19">
         <v>0.603047318</v>
       </c>
-      <c r="O19">
-        <v>97.52656766699999</v>
-      </c>
       <c r="P19">
+        <v>97.526567666999995</v>
+      </c>
+      <c r="Q19">
         <v>16.88305957</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.3149091772</v>
       </c>
-      <c r="R19">
-        <v>0.05001123609999999</v>
-      </c>
       <c r="S19">
-        <v>0.2022150491</v>
+        <v>5.0011236099999988E-2</v>
       </c>
       <c r="T19">
+        <v>0.20221504909999999</v>
+      </c>
+      <c r="U19">
         <v>1.066987715</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>26.54371828</v>
       </c>
-      <c r="V19">
-        <v>227.04988962</v>
-      </c>
       <c r="W19">
-        <v>322.1595254</v>
+        <v>227.04988961999999</v>
       </c>
       <c r="X19">
-        <v>10.472617055</v>
+        <v>322.15952540000001</v>
       </c>
       <c r="Y19">
-        <v>90.18872350000001</v>
+        <v>10.472617055000001</v>
       </c>
       <c r="Z19">
-        <v>15.12925966</v>
+        <v>90.188723500000009</v>
       </c>
       <c r="AA19">
-        <v>0.6584581124822165</v>
+        <v>15.129259660000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.65845811248221653</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>185</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>194</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>197</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L20">
-        <v>0.8222354700000001</v>
-      </c>
       <c r="M20">
-        <v>6.663915486</v>
+        <v>0.82223547000000008</v>
       </c>
       <c r="N20">
-        <v>0.378820731</v>
+        <v>6.6639154859999996</v>
       </c>
       <c r="O20">
-        <v>0.7786658859</v>
+        <v>0.37882073100000002</v>
       </c>
       <c r="P20">
-        <v>15.66502462</v>
+        <v>0.77866588589999997</v>
       </c>
       <c r="Q20">
-        <v>0.474251008</v>
+        <v>15.665024620000001</v>
       </c>
       <c r="R20">
-        <v>0.0650386989</v>
+        <v>0.47425100799999997</v>
       </c>
       <c r="S20">
-        <v>0.2644647742</v>
+        <v>6.5038698899999997E-2</v>
       </c>
       <c r="T20">
-        <v>6.213580674</v>
+        <v>0.26446477419999997</v>
       </c>
       <c r="U20">
-        <v>45.95145262999999</v>
+        <v>6.2135806740000001</v>
       </c>
       <c r="V20">
-        <v>313.7441499</v>
+        <v>45.951452629999991</v>
       </c>
       <c r="W20">
-        <v>84.82864069999999</v>
+        <v>313.74414990000002</v>
       </c>
       <c r="X20">
-        <v>12.37902846</v>
+        <v>84.828640699999994</v>
       </c>
       <c r="Y20">
+        <v>12.379028460000001</v>
+      </c>
+      <c r="Z20">
         <v>44.1518236</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>10.1943161</v>
       </c>
-      <c r="AA20">
-        <v>0.6800997149801986</v>
+      <c r="AB20">
+        <v>0.68009971498019861</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>158</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>186</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>195</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>197</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="L21">
-        <v>0.9452402923999998</v>
-      </c>
       <c r="M21">
-        <v>5.133616886</v>
+        <v>0.94524029239999985</v>
       </c>
       <c r="N21">
-        <v>0.4491070161</v>
+        <v>5.1336168860000004</v>
       </c>
       <c r="O21">
-        <v>0.9477604474</v>
+        <v>0.44910701609999998</v>
       </c>
       <c r="P21">
-        <v>20.811451466</v>
+        <v>0.94776044739999998</v>
       </c>
       <c r="Q21">
-        <v>0.4400187783</v>
+        <v>20.811451466000001</v>
       </c>
       <c r="R21">
-        <v>0.06086690012</v>
+        <v>0.44001877830000002</v>
       </c>
       <c r="S21">
-        <v>0.26168815541</v>
+        <v>6.0866900119999998E-2</v>
       </c>
       <c r="T21">
-        <v>1.2212244007</v>
+        <v>0.26168815541000001</v>
       </c>
       <c r="U21">
+        <v>1.2212244006999999</v>
+      </c>
+      <c r="V21">
         <v>28.08986650000001</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>214.47671377</v>
       </c>
-      <c r="W21">
-        <v>580.4748394</v>
-      </c>
       <c r="X21">
-        <v>17.01560719</v>
+        <v>580.47483939999995</v>
       </c>
       <c r="Y21">
-        <v>53.06221106</v>
+        <v>17.015607190000001</v>
       </c>
       <c r="Z21">
+        <v>53.062211060000003</v>
+      </c>
+      <c r="AA21">
         <v>11.75703423</v>
       </c>
-      <c r="AA21">
-        <v>0.6942488365044669</v>
+      <c r="AB21">
+        <v>0.69424883650446689</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>159</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>187</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>195</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L22">
-        <v>2.346256062</v>
-      </c>
       <c r="M22">
-        <v>21.29126517</v>
+        <v>2.3462560620000001</v>
       </c>
       <c r="N22">
-        <v>0.9545946810000001</v>
+        <v>21.291265169999999</v>
       </c>
       <c r="O22">
-        <v>2.846178679</v>
+        <v>0.95459468100000011</v>
       </c>
       <c r="P22">
-        <v>46.17663048999999</v>
+        <v>2.8461786789999999</v>
       </c>
       <c r="Q22">
-        <v>1.4038710292</v>
+        <v>46.176630489999987</v>
       </c>
       <c r="R22">
-        <v>0.2038675407</v>
+        <v>1.4038710292000001</v>
       </c>
       <c r="S22">
-        <v>0.8715847331</v>
+        <v>0.20386754069999999</v>
       </c>
       <c r="T22">
+        <v>0.87158473309999995</v>
+      </c>
+      <c r="U22">
         <v>2.752022041</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>120.76978548</v>
       </c>
-      <c r="V22">
-        <v>1121.12671042</v>
-      </c>
       <c r="W22">
-        <v>724.6954464</v>
+        <v>1121.1267104200001</v>
       </c>
       <c r="X22">
-        <v>23.474335155</v>
+        <v>724.69544640000004</v>
       </c>
       <c r="Y22">
+        <v>23.474335154999999</v>
+      </c>
+      <c r="Z22">
         <v>127.152439</v>
       </c>
-      <c r="Z22">
-        <v>21.25942074</v>
-      </c>
       <c r="AA22">
+        <v>21.259420739999999</v>
+      </c>
+      <c r="AB22">
         <v>0.7967084928249959</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>132</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>160</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>195</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="L23">
-        <v>1.714443375</v>
-      </c>
       <c r="M23">
+        <v>1.7144433750000001</v>
+      </c>
+      <c r="N23">
         <v>18.15694105</v>
       </c>
-      <c r="N23">
-        <v>0.810856911</v>
-      </c>
       <c r="O23">
-        <v>2.4653624913</v>
+        <v>0.81085691100000001</v>
       </c>
       <c r="P23">
-        <v>32.18301084</v>
+        <v>2.4653624913000001</v>
       </c>
       <c r="Q23">
+        <v>32.183010840000001</v>
+      </c>
+      <c r="R23">
         <v>1.1492699246</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1678426962</v>
       </c>
-      <c r="S23">
-        <v>0.7266451826</v>
-      </c>
       <c r="T23">
-        <v>1.819624343</v>
+        <v>0.72664518259999999</v>
       </c>
       <c r="U23">
+        <v>1.8196243430000001</v>
+      </c>
+      <c r="V23">
         <v>104.91973381</v>
       </c>
-      <c r="V23">
-        <v>1048.6840759</v>
-      </c>
       <c r="W23">
+        <v>1048.6840758999999</v>
+      </c>
+      <c r="X23">
         <v>247.9646693</v>
       </c>
-      <c r="X23">
-        <v>8.32284202</v>
-      </c>
       <c r="Y23">
+        <v>8.3228420199999995</v>
+      </c>
+      <c r="Z23">
         <v>111.7174727</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>12.24051508</v>
       </c>
-      <c r="AA23">
-        <v>0.7950004850598948</v>
+      <c r="AB23">
+        <v>0.79500048505989485</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>133</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>161</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>189</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>194</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L24">
-        <v>0.4991251421</v>
-      </c>
       <c r="M24">
-        <v>5.17241302099</v>
+        <v>0.49912514209999997</v>
       </c>
       <c r="N24">
-        <v>0.24318970251</v>
+        <v>5.1724130209899997</v>
       </c>
       <c r="O24">
+        <v>0.24318970250999999</v>
+      </c>
+      <c r="P24">
         <v>0.25407432579</v>
       </c>
-      <c r="P24">
-        <v>10.689352406</v>
-      </c>
       <c r="Q24">
-        <v>0.29715094743</v>
+        <v>10.689352405999999</v>
       </c>
       <c r="R24">
-        <v>0.039308807224</v>
+        <v>0.29715094742999998</v>
       </c>
       <c r="S24">
+        <v>3.9308807224E-2</v>
+      </c>
+      <c r="T24">
         <v>0.15601434097</v>
       </c>
-      <c r="T24">
-        <v>0.8916281337</v>
-      </c>
       <c r="U24">
-        <v>20.209502197</v>
+        <v>0.89162813370000005</v>
       </c>
       <c r="V24">
-        <v>212.30238762</v>
+        <v>20.209502196999999</v>
       </c>
       <c r="W24">
-        <v>113.59088791</v>
+        <v>212.30238761999999</v>
       </c>
       <c r="X24">
-        <v>7.525864532699999</v>
+        <v>113.59088791000001</v>
       </c>
       <c r="Y24">
-        <v>24.024722785</v>
+        <v>7.5258645326999991</v>
       </c>
       <c r="Z24">
+        <v>24.024722785000002</v>
+      </c>
+      <c r="AA24">
         <v>12.933388158</v>
       </c>
-      <c r="AA24">
-        <v>0.6001706826608701</v>
+      <c r="AB24">
+        <v>0.60017068266087015</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>162</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>190</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>194</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L25">
-        <v>1.1406721851</v>
-      </c>
       <c r="M25">
-        <v>9.916135846000001</v>
+        <v>1.1406721850999999</v>
       </c>
       <c r="N25">
-        <v>0.79722635764</v>
+        <v>9.9161358460000013</v>
       </c>
       <c r="O25">
-        <v>2.93887947109</v>
+        <v>0.79722635764000005</v>
       </c>
       <c r="P25">
-        <v>22.556370323</v>
+        <v>2.9388794710899999</v>
       </c>
       <c r="Q25">
-        <v>0.78664998345</v>
+        <v>22.556370322999999</v>
       </c>
       <c r="R25">
+        <v>0.78664998345000003</v>
+      </c>
+      <c r="S25">
         <v>0.108816568174</v>
       </c>
-      <c r="S25">
-        <v>0.43842416085</v>
-      </c>
       <c r="T25">
+        <v>0.43842416085000002</v>
+      </c>
+      <c r="U25">
         <v>1.7097353913</v>
       </c>
-      <c r="U25">
-        <v>36.738352706</v>
-      </c>
       <c r="V25">
+        <v>36.738352706000001</v>
+      </c>
+      <c r="W25">
         <v>391.47937055</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>189.03191694</v>
       </c>
-      <c r="X25">
-        <v>13.3234429363</v>
-      </c>
       <c r="Y25">
-        <v>114.686045039</v>
+        <v>13.323442936299999</v>
       </c>
       <c r="Z25">
+        <v>114.68604503900001</v>
+      </c>
+      <c r="AA25">
         <v>21.041074797</v>
       </c>
-      <c r="AA25">
-        <v>0.7565843034303513</v>
+      <c r="AB25">
+        <v>0.75658430343035132</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>135</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>163</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>188</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>195</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2.184932018</v>
       </c>
-      <c r="M26">
-        <v>21.61297557659</v>
-      </c>
       <c r="N26">
-        <v>1.1077403291</v>
+        <v>21.612975576589999</v>
       </c>
       <c r="O26">
-        <v>96.27698350069998</v>
+        <v>1.1077403291000001</v>
       </c>
       <c r="P26">
-        <v>52.79636077199999</v>
+        <v>96.276983500699984</v>
       </c>
       <c r="Q26">
-        <v>0.76800488042</v>
+        <v>52.796360771999993</v>
       </c>
       <c r="R26">
+        <v>0.76800488042000004</v>
+      </c>
+      <c r="S26">
         <v>0.1105570736</v>
       </c>
-      <c r="S26">
-        <v>0.43932670846</v>
-      </c>
       <c r="T26">
-        <v>2.7759738757</v>
+        <v>0.43932670845999999</v>
       </c>
       <c r="U26">
-        <v>93.977776568</v>
+        <v>2.7759738757000001</v>
       </c>
       <c r="V26">
-        <v>375.5954944199999</v>
+        <v>93.977776567999996</v>
       </c>
       <c r="W26">
+        <v>375.59549441999991</v>
+      </c>
+      <c r="X26">
         <v>1275.55272317</v>
       </c>
-      <c r="X26">
-        <v>24.1552068957</v>
-      </c>
       <c r="Y26">
-        <v>88.47616638999999</v>
+        <v>24.155206895700001</v>
       </c>
       <c r="Z26">
-        <v>31.384420951</v>
+        <v>88.476166389999989</v>
       </c>
       <c r="AA26">
-        <v>0.7561689246253009</v>
+        <v>31.384420950999999</v>
+      </c>
+      <c r="AB26">
+        <v>0.75616892462530094</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>164</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>191</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>194</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L27">
-        <v>0.8491305883999999</v>
-      </c>
       <c r="M27">
-        <v>4.166903844</v>
+        <v>0.84913058839999989</v>
       </c>
       <c r="N27">
-        <v>0.4100925154</v>
+        <v>4.1669038440000001</v>
       </c>
       <c r="O27">
-        <v>1.0241361688</v>
+        <v>0.41009251540000002</v>
       </c>
       <c r="P27">
-        <v>21.88961682</v>
+        <v>1.0241361687999999</v>
       </c>
       <c r="Q27">
+        <v>21.889616820000001</v>
+      </c>
+      <c r="R27">
         <v>0.3234244798</v>
       </c>
-      <c r="R27">
-        <v>0.03913158066</v>
-      </c>
       <c r="S27">
-        <v>0.14390317628</v>
+        <v>3.9131580659999998E-2</v>
       </c>
       <c r="T27">
+        <v>0.14390317627999999</v>
+      </c>
+      <c r="U27">
         <v>1.4036647781</v>
       </c>
-      <c r="U27">
-        <v>18.24009124800001</v>
-      </c>
       <c r="V27">
-        <v>60.67858952</v>
+        <v>18.240091248000009</v>
       </c>
       <c r="W27">
-        <v>579.2408088</v>
+        <v>60.678589520000003</v>
       </c>
       <c r="X27">
+        <v>579.24080879999997</v>
+      </c>
+      <c r="Y27">
         <v>18.470396762</v>
       </c>
-      <c r="Y27">
-        <v>58.63466973</v>
-      </c>
       <c r="Z27">
-        <v>12.96737505</v>
+        <v>58.634669729999999</v>
       </c>
       <c r="AA27">
-        <v>0.6602152294690462</v>
+        <v>12.967375049999999</v>
+      </c>
+      <c r="AB27">
+        <v>0.66021522946904621</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>137</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>165</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>192</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>194</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L28">
-        <v>0.27334115</v>
-      </c>
       <c r="M28">
-        <v>1.34701799</v>
+        <v>0.27334114999999998</v>
       </c>
       <c r="N28">
+        <v>1.3470179900000001</v>
+      </c>
+      <c r="O28">
         <v>0.132423394</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.167791045</v>
       </c>
-      <c r="P28">
-        <v>5.32566437</v>
-      </c>
       <c r="Q28">
-        <v>0.1398297532</v>
+        <v>5.3256643700000001</v>
       </c>
       <c r="R28">
-        <v>0.0199256969</v>
+        <v>0.13982975319999999</v>
       </c>
       <c r="S28">
-        <v>0.07920272210000001</v>
+        <v>1.9925696900000001E-2</v>
       </c>
       <c r="T28">
+        <v>7.9202722100000011E-2</v>
+      </c>
+      <c r="U28">
         <v>0.374199642</v>
       </c>
-      <c r="U28">
-        <v>10.28234128</v>
-      </c>
       <c r="V28">
-        <v>85.07467222</v>
+        <v>10.282341280000001</v>
       </c>
       <c r="W28">
-        <v>75.04481549999998</v>
+        <v>85.074672219999997</v>
       </c>
       <c r="X28">
-        <v>9.605186369</v>
+        <v>75.044815499999984</v>
       </c>
       <c r="Y28">
-        <v>13.4930133</v>
+        <v>9.6051863690000001</v>
       </c>
       <c r="Z28">
-        <v>7.505297319999999</v>
+        <v>13.493013299999999</v>
       </c>
       <c r="AA28">
-        <v>0.338257127094973</v>
+        <v>7.5052973199999986</v>
+      </c>
+      <c r="AB28">
+        <v>0.33825712709497302</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>138</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>166</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>193</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>195</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="L29">
-        <v>0.3649844202999999</v>
-      </c>
       <c r="M29">
-        <v>4.267252593</v>
+        <v>0.36498442029999989</v>
       </c>
       <c r="N29">
+        <v>4.2672525930000003</v>
+      </c>
+      <c r="O29">
         <v>0.14350980884</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.17199128949</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>7.596201808</v>
       </c>
-      <c r="Q29">
-        <v>0.2912754754499999</v>
-      </c>
       <c r="R29">
-        <v>0.03935626388399999</v>
+        <v>0.29127547544999988</v>
       </c>
       <c r="S29">
-        <v>0.16514085151</v>
+        <v>3.9356263883999987E-2</v>
       </c>
       <c r="T29">
-        <v>0.5899821601</v>
+        <v>0.16514085150999999</v>
       </c>
       <c r="U29">
-        <v>12.684327166</v>
+        <v>0.58998216010000004</v>
       </c>
       <c r="V29">
+        <v>12.684327165999999</v>
+      </c>
+      <c r="W29">
         <v>151.87472556</v>
       </c>
-      <c r="W29">
-        <v>39.54729224</v>
-      </c>
       <c r="X29">
-        <v>3.892238303</v>
+        <v>39.547292239999997</v>
       </c>
       <c r="Y29">
+        <v>3.8922383030000001</v>
+      </c>
+      <c r="Z29">
         <v>14.762427469</v>
       </c>
-      <c r="Z29">
-        <v>5.101844718999999</v>
-      </c>
       <c r="AA29">
-        <v>0.3644689677724107</v>
+        <v>5.1018447189999989</v>
+      </c>
+      <c r="AB29">
+        <v>0.36446896777241072</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
-    <hyperlink ref="K23" r:id="rId22"/>
-    <hyperlink ref="K24" r:id="rId23"/>
-    <hyperlink ref="K25" r:id="rId24"/>
-    <hyperlink ref="K26" r:id="rId25"/>
-    <hyperlink ref="K27" r:id="rId26"/>
-    <hyperlink ref="K28" r:id="rId27"/>
-    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
